--- a/docs/library_catalog/library_catalog2024-01-30T2033Z.xlsx
+++ b/docs/library_catalog/library_catalog2024-01-30T2033Z.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/ASK/docs/library_catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC56AD6-C182-5D46-A113-867ECAFB5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3CD56-E223-FE49-AD08-31478D7FCB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5027,12 +5027,18 @@
   <dimension ref="A1:Q253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
